--- a/VBA VASCULAR.xlsx
+++ b/VBA VASCULAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CIS051\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SigtapSync\SigtapSync-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83941A6A-15E2-48DF-B03E-2432547FBCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667C75A5-3296-4A1F-B198-477C92C3A847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{115C519C-6179-499E-A4D1-A5FBF0EE963E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{115C519C-6179-499E-A4D1-A5FBF0EE963E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -29,35 +29,38 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>04.06.02.057-4 TRATAMENTO CIRÚRGICO DE VARIZES (UNILATERAL)</t>
-  </si>
-  <si>
-    <t>04.06.02.059-0 TROMBECTOMIA DO SISTEMA VENOSO</t>
-  </si>
-  <si>
-    <t>PROCEDIMENTOS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>HON1</t>
+  </si>
+  <si>
+    <t>04.06.02.057-4</t>
+  </si>
+  <si>
+    <t>04.06.02.059-0</t>
+  </si>
+  <si>
+    <t>TRATAMENTO CIRÚRGICO DE VARIZES (UNILATERAL)</t>
+  </si>
+  <si>
+    <t>TROMBECTOMIA DO SISTEMA VENOSO</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>PROCEDIMENTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,7 +92,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,9 +111,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,7 +151,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -254,7 +257,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -396,7 +399,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -404,39 +407,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6396B6A4-904C-4F60-A3E3-427364730266}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
         <v>200</v>
       </c>
     </row>
